--- a/natmiOut/YoungD2/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H2">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I2">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J2">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.61943011543085</v>
+        <v>0.013267</v>
       </c>
       <c r="N2">
-        <v>5.61943011543085</v>
+        <v>0.039801</v>
       </c>
       <c r="O2">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="P2">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="Q2">
-        <v>20.76859533504503</v>
+        <v>0.05932102455166668</v>
       </c>
       <c r="R2">
-        <v>20.76859533504503</v>
+        <v>0.5338892209650001</v>
       </c>
       <c r="S2">
-        <v>0.06755698651037279</v>
+        <v>0.0001732613525591465</v>
       </c>
       <c r="T2">
-        <v>0.06755698651037279</v>
+        <v>0.0001732613525591464</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.69585436751226</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H3">
-        <v>3.69585436751226</v>
+        <v>13.413965</v>
       </c>
       <c r="I3">
-        <v>0.07296492607777932</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J3">
-        <v>0.07296492607777932</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.44983561341725</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N3">
-        <v>0.44983561341725</v>
+        <v>17.37879</v>
       </c>
       <c r="O3">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="P3">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="Q3">
-        <v>1.6625269165107</v>
+        <v>25.90205342248333</v>
       </c>
       <c r="R3">
-        <v>1.6625269165107</v>
+        <v>233.11848080235</v>
       </c>
       <c r="S3">
-        <v>0.005407939567406545</v>
+        <v>0.0756531911570405</v>
       </c>
       <c r="T3">
-        <v>0.005407939567406545</v>
+        <v>0.07565319115704047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.431079089072683</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H4">
-        <v>0.431079089072683</v>
+        <v>13.413965</v>
       </c>
       <c r="I4">
-        <v>0.008510523072649297</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J4">
-        <v>0.008510523072649297</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>5.61943011543085</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N4">
-        <v>5.61943011543085</v>
+        <v>0.176128</v>
       </c>
       <c r="O4">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="P4">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="Q4">
-        <v>2.422418815267533</v>
+        <v>0.2625083141688889</v>
       </c>
       <c r="R4">
-        <v>2.422418815267533</v>
+        <v>2.36257482752</v>
       </c>
       <c r="S4">
-        <v>0.007879748850869846</v>
+        <v>0.0007667188136865243</v>
       </c>
       <c r="T4">
-        <v>0.007879748850869846</v>
+        <v>0.000766718813686524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.431079089072683</v>
+        <v>4.471321666666667</v>
       </c>
       <c r="H5">
-        <v>0.431079089072683</v>
+        <v>13.413965</v>
       </c>
       <c r="I5">
-        <v>0.008510523072649297</v>
+        <v>0.083204941376588</v>
       </c>
       <c r="J5">
-        <v>0.008510523072649297</v>
+        <v>0.08320494137658797</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.44983561341725</v>
+        <v>0.5062776666666666</v>
       </c>
       <c r="N5">
-        <v>0.44983561341725</v>
+        <v>1.518833</v>
       </c>
       <c r="O5">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="P5">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="Q5">
-        <v>0.1939147264643597</v>
+        <v>2.263730300316111</v>
       </c>
       <c r="R5">
-        <v>0.1939147264643597</v>
+        <v>20.373572702845</v>
       </c>
       <c r="S5">
-        <v>0.0006307742217794515</v>
+        <v>0.006611770053301829</v>
       </c>
       <c r="T5">
-        <v>0.0006307742217794515</v>
+        <v>0.006611770053301827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.0571435599817</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H6">
-        <v>6.0571435599817</v>
+        <v>1.354768</v>
       </c>
       <c r="I6">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J6">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>5.61943011543085</v>
+        <v>0.013267</v>
       </c>
       <c r="N6">
-        <v>5.61943011543085</v>
+        <v>0.039801</v>
       </c>
       <c r="O6">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="P6">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="Q6">
-        <v>34.03769493444919</v>
+        <v>0.005991235685333334</v>
       </c>
       <c r="R6">
-        <v>34.03769493444919</v>
+        <v>0.05392112116800001</v>
       </c>
       <c r="S6">
-        <v>0.1107192884465618</v>
+        <v>1.749884810970132E-05</v>
       </c>
       <c r="T6">
-        <v>0.1107192884465618</v>
+        <v>1.749884810970132E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,122 +844,122 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.0571435599817</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H7">
-        <v>6.0571435599817</v>
+        <v>1.354768</v>
       </c>
       <c r="I7">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J7">
-        <v>0.11958237207113</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.44983561341725</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N7">
-        <v>0.44983561341725</v>
+        <v>17.37879</v>
       </c>
       <c r="O7">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="P7">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="Q7">
-        <v>2.724718888860713</v>
+        <v>2.616025396746666</v>
       </c>
       <c r="R7">
-        <v>2.724718888860713</v>
+        <v>23.54422857072</v>
       </c>
       <c r="S7">
-        <v>0.0088630836245682</v>
+        <v>0.007640732809235854</v>
       </c>
       <c r="T7">
-        <v>0.0088630836245682</v>
+        <v>0.007640732809235852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.05166258575103</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
-        <v>5.05166258575103</v>
+        <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.09973179419061207</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J8">
-        <v>0.09973179419061207</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>5.61943011543085</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N8">
-        <v>5.61943011543085</v>
+        <v>0.176128</v>
       </c>
       <c r="O8">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="P8">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="Q8">
-        <v>28.38746486736462</v>
+        <v>0.02651250870044445</v>
       </c>
       <c r="R8">
-        <v>28.38746486736462</v>
+        <v>0.238612578304</v>
       </c>
       <c r="S8">
-        <v>0.09233997534114285</v>
+        <v>7.743617295709843E-05</v>
       </c>
       <c r="T8">
-        <v>0.09233997534114285</v>
+        <v>7.743617295709841E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.05166258575103</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
-        <v>5.05166258575103</v>
+        <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.09973179419061207</v>
+        <v>0.008403435674603098</v>
       </c>
       <c r="J9">
-        <v>0.09973179419061207</v>
+        <v>0.008403435674603096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.44983561341725</v>
+        <v>0.5062776666666666</v>
       </c>
       <c r="N9">
-        <v>0.44983561341725</v>
+        <v>1.518833</v>
       </c>
       <c r="O9">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="P9">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="Q9">
-        <v>2.272417738038286</v>
+        <v>0.2286295939715556</v>
       </c>
       <c r="R9">
-        <v>2.272417738038286</v>
+        <v>2.057666345744</v>
       </c>
       <c r="S9">
-        <v>0.007391818849469217</v>
+        <v>0.0006677678443004443</v>
       </c>
       <c r="T9">
-        <v>0.007391818849469217</v>
+        <v>0.0006677678443004442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.5687969974185</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H10">
-        <v>31.5687969974185</v>
+        <v>18.638963</v>
       </c>
       <c r="I10">
-        <v>0.6232428851982955</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J10">
-        <v>0.6232428851982955</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5.61943011543085</v>
+        <v>0.013267</v>
       </c>
       <c r="N10">
-        <v>5.61943011543085</v>
+        <v>0.039801</v>
       </c>
       <c r="O10">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="P10">
-        <v>0.9258830254738862</v>
+        <v>0.002082344506138891</v>
       </c>
       <c r="Q10">
-        <v>177.3986485552165</v>
+        <v>0.08242770737366666</v>
       </c>
       <c r="R10">
-        <v>177.3986485552165</v>
+        <v>0.7418493663629999</v>
       </c>
       <c r="S10">
-        <v>0.5770500081524718</v>
+        <v>0.0002407499900051838</v>
       </c>
       <c r="T10">
-        <v>0.5770500081524718</v>
+        <v>0.0002407499900051838</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.5687969974185</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H11">
-        <v>31.5687969974185</v>
+        <v>18.638963</v>
       </c>
       <c r="I11">
-        <v>0.6232428851982955</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J11">
-        <v>0.6232428851982955</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.44983561341725</v>
+        <v>5.792929999999999</v>
       </c>
       <c r="N11">
-        <v>0.44983561341725</v>
+        <v>17.37879</v>
       </c>
       <c r="O11">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="P11">
-        <v>0.07411697452611378</v>
+        <v>0.9092391618261221</v>
       </c>
       <c r="Q11">
-        <v>14.20076916217839</v>
+        <v>35.99140264386332</v>
       </c>
       <c r="R11">
-        <v>14.20076916217839</v>
+        <v>323.9226237947699</v>
       </c>
       <c r="S11">
-        <v>0.04619287704582373</v>
+        <v>0.105121567769709</v>
       </c>
       <c r="T11">
-        <v>0.04619287704582373</v>
+        <v>0.105121567769709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.84794214837555</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H12">
-        <v>3.84794214837555</v>
+        <v>18.638963</v>
       </c>
       <c r="I12">
-        <v>0.07596749938953377</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J12">
-        <v>0.07596749938953377</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>5.61943011543085</v>
+        <v>0.05870933333333334</v>
       </c>
       <c r="N12">
-        <v>5.61943011543085</v>
+        <v>0.176128</v>
       </c>
       <c r="O12">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="P12">
-        <v>0.9258830254738862</v>
+        <v>0.009214823074225033</v>
       </c>
       <c r="Q12">
-        <v>21.62324199101725</v>
+        <v>0.3647603639182222</v>
       </c>
       <c r="R12">
-        <v>21.62324199101725</v>
+        <v>3.282843275264</v>
       </c>
       <c r="S12">
-        <v>0.07033701817246714</v>
+        <v>0.001065370574599458</v>
       </c>
       <c r="T12">
-        <v>0.07033701817246714</v>
+        <v>0.001065370574599458</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,52 +1219,796 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.84794214837555</v>
+        <v>6.212987666666666</v>
       </c>
       <c r="H13">
-        <v>3.84794214837555</v>
+        <v>18.638963</v>
       </c>
       <c r="I13">
-        <v>0.07596749938953377</v>
+        <v>0.1156148703038507</v>
       </c>
       <c r="J13">
-        <v>0.07596749938953377</v>
+        <v>0.1156148703038506</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.44983561341725</v>
+        <v>0.5062776666666666</v>
       </c>
       <c r="N13">
-        <v>0.44983561341725</v>
+        <v>1.518833</v>
       </c>
       <c r="O13">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="P13">
-        <v>0.07411697452611378</v>
+        <v>0.07946367059351396</v>
       </c>
       <c r="Q13">
-        <v>1.730941416708606</v>
+        <v>3.145496898908777</v>
       </c>
       <c r="R13">
-        <v>1.730941416708606</v>
+        <v>28.30947209017899</v>
       </c>
       <c r="S13">
-        <v>0.005630481217066639</v>
+        <v>0.00918718196953703</v>
       </c>
       <c r="T13">
-        <v>0.005630481217066639</v>
+        <v>0.009187181969537028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.473970333333334</v>
+      </c>
+      <c r="H14">
+        <v>19.421911</v>
+      </c>
+      <c r="I14">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="J14">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.013267</v>
+      </c>
+      <c r="N14">
+        <v>0.039801</v>
+      </c>
+      <c r="O14">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="P14">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="Q14">
+        <v>0.08589016441233335</v>
+      </c>
+      <c r="R14">
+        <v>0.7730114797110001</v>
+      </c>
+      <c r="S14">
+        <v>0.0002508629304715917</v>
+      </c>
+      <c r="T14">
+        <v>0.0002508629304715917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.473970333333334</v>
+      </c>
+      <c r="H15">
+        <v>19.421911</v>
+      </c>
+      <c r="I15">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="J15">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N15">
+        <v>17.37879</v>
+      </c>
+      <c r="O15">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="P15">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="Q15">
+        <v>37.50325696307667</v>
+      </c>
+      <c r="R15">
+        <v>337.52931266769</v>
+      </c>
+      <c r="S15">
+        <v>0.1095373027675283</v>
+      </c>
+      <c r="T15">
+        <v>0.1095373027675283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.473970333333334</v>
+      </c>
+      <c r="H16">
+        <v>19.421911</v>
+      </c>
+      <c r="I16">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="J16">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.176128</v>
+      </c>
+      <c r="O16">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="P16">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="Q16">
+        <v>0.3800824822897778</v>
+      </c>
+      <c r="R16">
+        <v>3.420742340608</v>
+      </c>
+      <c r="S16">
+        <v>0.001110122514964461</v>
+      </c>
+      <c r="T16">
+        <v>0.001110122514964461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.473970333333334</v>
+      </c>
+      <c r="H17">
+        <v>19.421911</v>
+      </c>
+      <c r="I17">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="J17">
+        <v>0.1204713868104106</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5062776666666666</v>
+      </c>
+      <c r="N17">
+        <v>1.518833</v>
+      </c>
+      <c r="O17">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="P17">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="Q17">
+        <v>3.277626594429222</v>
+      </c>
+      <c r="R17">
+        <v>29.498639349863</v>
+      </c>
+      <c r="S17">
+        <v>0.00957309859744627</v>
+      </c>
+      <c r="T17">
+        <v>0.00957309859744627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="H18">
+        <v>96.748831</v>
+      </c>
+      <c r="I18">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="J18">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.013267</v>
+      </c>
+      <c r="N18">
+        <v>0.039801</v>
+      </c>
+      <c r="O18">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="P18">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="Q18">
+        <v>0.4278555802923333</v>
+      </c>
+      <c r="R18">
+        <v>3.850700222631</v>
+      </c>
+      <c r="S18">
+        <v>0.001249655364210081</v>
+      </c>
+      <c r="T18">
+        <v>0.001249655364210081</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="H19">
+        <v>96.748831</v>
+      </c>
+      <c r="I19">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="J19">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N19">
+        <v>17.37879</v>
+      </c>
+      <c r="O19">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="P19">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="Q19">
+        <v>186.8197351882766</v>
+      </c>
+      <c r="R19">
+        <v>1681.37761669449</v>
+      </c>
+      <c r="S19">
+        <v>0.5456520727363761</v>
+      </c>
+      <c r="T19">
+        <v>0.5456520727363761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="H20">
+        <v>96.748831</v>
+      </c>
+      <c r="I20">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="J20">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.176128</v>
+      </c>
+      <c r="O20">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="P20">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="Q20">
+        <v>1.893353122929778</v>
+      </c>
+      <c r="R20">
+        <v>17.040178106368</v>
+      </c>
+      <c r="S20">
+        <v>0.005529994220938999</v>
+      </c>
+      <c r="T20">
+        <v>0.005529994220938999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>32.24961033333333</v>
+      </c>
+      <c r="H21">
+        <v>96.748831</v>
+      </c>
+      <c r="I21">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="J21">
+        <v>0.6001194137310196</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5062776666666666</v>
+      </c>
+      <c r="N21">
+        <v>1.518833</v>
+      </c>
+      <c r="O21">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="P21">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="Q21">
+        <v>16.32725747046922</v>
+      </c>
+      <c r="R21">
+        <v>146.945317234223</v>
+      </c>
+      <c r="S21">
+        <v>0.04768769140949446</v>
+      </c>
+      <c r="T21">
+        <v>0.04768769140949446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.879176</v>
+      </c>
+      <c r="H22">
+        <v>11.637528</v>
+      </c>
+      <c r="I22">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="J22">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.013267</v>
+      </c>
+      <c r="N22">
+        <v>0.039801</v>
+      </c>
+      <c r="O22">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="P22">
+        <v>0.002082344506138891</v>
+      </c>
+      <c r="Q22">
+        <v>0.051465027992</v>
+      </c>
+      <c r="R22">
+        <v>0.463185251928</v>
+      </c>
+      <c r="S22">
+        <v>0.0001503160207831867</v>
+      </c>
+      <c r="T22">
+        <v>0.0001503160207831866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.879176</v>
+      </c>
+      <c r="H23">
+        <v>11.637528</v>
+      </c>
+      <c r="I23">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="J23">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.792929999999999</v>
+      </c>
+      <c r="N23">
+        <v>17.37879</v>
+      </c>
+      <c r="O23">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="P23">
+        <v>0.9092391618261221</v>
+      </c>
+      <c r="Q23">
+        <v>22.47179502568</v>
+      </c>
+      <c r="R23">
+        <v>202.24615523112</v>
+      </c>
+      <c r="S23">
+        <v>0.06563429458623241</v>
+      </c>
+      <c r="T23">
+        <v>0.06563429458623239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.879176</v>
+      </c>
+      <c r="H24">
+        <v>11.637528</v>
+      </c>
+      <c r="I24">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="J24">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.05870933333333334</v>
+      </c>
+      <c r="N24">
+        <v>0.176128</v>
+      </c>
+      <c r="O24">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="P24">
+        <v>0.009214823074225033</v>
+      </c>
+      <c r="Q24">
+        <v>0.2277438368426667</v>
+      </c>
+      <c r="R24">
+        <v>2.049694531584</v>
+      </c>
+      <c r="S24">
+        <v>0.000665180777078493</v>
+      </c>
+      <c r="T24">
+        <v>0.0006651807770784929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.879176</v>
+      </c>
+      <c r="H25">
+        <v>11.637528</v>
+      </c>
+      <c r="I25">
+        <v>0.07218595210352802</v>
+      </c>
+      <c r="J25">
+        <v>0.072185952103528</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.5062776666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.518833</v>
+      </c>
+      <c r="O25">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="P25">
+        <v>0.07946367059351396</v>
+      </c>
+      <c r="Q25">
+        <v>1.963940173869333</v>
+      </c>
+      <c r="R25">
+        <v>17.675461564824</v>
+      </c>
+      <c r="S25">
+        <v>0.005736160719433926</v>
+      </c>
+      <c r="T25">
+        <v>0.005736160719433925</v>
       </c>
     </row>
   </sheetData>
